--- a/biology/Microbiologie/Gammaproteobacteria/Gammaproteobacteria.xlsx
+++ b/biology/Microbiologie/Gammaproteobacteria/Gammaproteobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gammaproteobacteria sont une classe de bactéries de l'embranchement (ou phylum) des Pseudomonadota (anciennement Proteobacteria)[1]. Avec environ 250 genres c'est la plus grande des classes de Procaryotes. C'est aussi l'une des plus étudiées car elle comporte de nombreux genres d'intérêt médical, écologique et scientifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gammaproteobacteria sont une classe de bactéries de l'embranchement (ou phylum) des Pseudomonadota (anciennement Proteobacteria). Avec environ 250 genres c'est la plus grande des classes de Procaryotes. C'est aussi l'une des plus étudiées car elle comporte de nombreux genres d'intérêt médical, écologique et scientifique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La classe Gammaproteobacteria a été définie en 2005 dans le Bergey's Manual of Systematic Bacteriology. Elle comprend de plusieurs ordres bactériens parmi les plus connus tels que les Enterobacterales, les Legionellales, les Pseudomonales et les Vibrionales impliquées dans la santé humaine. Cette classe regroupe des bactéries très ubiquitaires dont certaines ont été retrouvés jusque dans les nuages, pluies et brouillards[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La classe Gammaproteobacteria a été définie en 2005 dans le Bergey's Manual of Systematic Bacteriology. Elle comprend de plusieurs ordres bactériens parmi les plus connus tels que les Enterobacterales, les Legionellales, les Pseudomonales et les Vibrionales impliquées dans la santé humaine. Cette classe regroupe des bactéries très ubiquitaires dont certaines ont été retrouvés jusque dans les nuages, pluies et brouillards,.
 Les exemples suivants illustrent la diversité, l'ubiquité mais aussi l'importance médicale des Gammaproteobacteria :
 l'espèce Suttonella ornithocola (ord. Cardiobacteriales) est un pathogène aviaire qui cause des pneumonies chez certaines mésanges ;
 l'ordre des Chromatiales rassemble près de dix familles de bactéries pourpres sulfureuses qui réalisent la photosynthèse sans produire de dioxygène ;
@@ -551,10 +565,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrites en 2005, les Gammaproteobactéria ont connu de nombreuses modifications au cours des années. En 2013, les Acidithiobacillales ont été déplacées de cette vers une nouvelle classe créée pour les contenir, Acidithiobacillia[4].
-En novembre 2022, les Gammaproteobacteria comprennent neuf classes dont sept ayant un nom correctement validés par l'ICSP, une nécessitant un changement de nom et une autre publiée de manière invalide[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrites en 2005, les Gammaproteobactéria ont connu de nombreuses modifications au cours des années. En 2013, les Acidithiobacillales ont été déplacées de cette vers une nouvelle classe créée pour les contenir, Acidithiobacillia.
+En novembre 2022, les Gammaproteobacteria comprennent neuf classes dont sept ayant un nom correctement validés par l'ICSP, une nécessitant un changement de nom et une autre publiée de manière invalide.
 </t>
         </is>
       </c>
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ordres validement publiés
-Selon la LPSN  (6 novembre 2022)[5] :
+          <t>Ordres validement publiés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (6 novembre 2022) :
 Acidiferrobacterales Kojima et al. 2015
 Aeromonadales Martin-Carnahan &amp; Joseph 2005
 Alteromonadales Bowman &amp; McMeekin 2005
@@ -605,17 +626,120 @@
 Pasteurellales Garrity et al. 2005
 Pseudomonadales Orla-Jensen 1921
 Thiotrichales Garrity et al. 2005
-Ordres reclassés (synonymes)
-Selon la LPSN  (6 novembre 2022)[5] les ordres suivants ont été reclassés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'ordres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ordres reclassés (synonymes)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (6 novembre 2022) les ordres suivants ont été reclassés :
 Acidithiobacillales Garrity et al. 2005 : reclassé sous le même nom dans la classe des Acidithiobacillia
-Xanthomonadales Saddler &amp; Bradbury 2005 : reclassé en Lysobacterales
-Ordres en attente de publication valide
-Selon la LPSN  (6 novembre 2022)[5] (Ca. signifie Candidatus) :
+Xanthomonadales Saddler &amp; Bradbury 2005 : reclassé en Lysobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'ordres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ordres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (6 novembre 2022) (Ca. signifie Candidatus) :
 « Ca. Comchoanobacterales » Needham et al. 2022
 « Ca. Tethybacterales » Taylor et al. 2021
-« Vibrionales » Garrity &amp; Holt 2001
-Non classés dans un ordre
-Parmi les non-classifiées[6], Azoamicus ciliaticola est un endosymbiote de ciliés, caractérisé par sa capacité à réaliser une dénitrification à l’intérieur de son hôte, en milieux aqueux dépourvu d'oxygène.
+« Vibrionales » Garrity &amp; Holt 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'ordres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Non classés dans un ordre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les non-classifiées, Azoamicus ciliaticola est un endosymbiote de ciliés, caractérisé par sa capacité à réaliser une dénitrification à l’intérieur de son hôte, en milieux aqueux dépourvu d'oxygène.
 </t>
         </is>
       </c>
